--- a/Documentación/Requisitos.xlsx
+++ b/Documentación/Requisitos.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
@@ -19,22 +14,16 @@
     <definedName name="Título1">Requisitos_de_Proyecto[[#Headers],[Tarea]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Requisitos del Proyecto'!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Tarea</t>
   </si>
   <si>
-    <t>Tarea 1</t>
-  </si>
-  <si>
-    <t>Tarea 2</t>
-  </si>
-  <si>
     <t>Tarea 3</t>
   </si>
   <si>
@@ -77,9 +66,6 @@
     <t>Fecha de entrega</t>
   </si>
   <si>
-    <t>Aplazado</t>
-  </si>
-  <si>
     <t>¿Finalizada?</t>
   </si>
   <si>
@@ -90,12 +76,66 @@
   </si>
   <si>
     <t xml:space="preserve">Notas </t>
+  </si>
+  <si>
+    <t>Realizar un buscador en "Mis Juegos"</t>
+  </si>
+  <si>
+    <t>Se realiza una busqueda por nombre</t>
+  </si>
+  <si>
+    <t>Crear el modelo de datos</t>
+  </si>
+  <si>
+    <t>Clases, sesiones y DAO desarrollados con éxito</t>
+  </si>
+  <si>
+    <t>Apartado "Mis Juegos"</t>
+  </si>
+  <si>
+    <t>Creacion de la estructura base de "Mis Juegos"</t>
+  </si>
+  <si>
+    <t>Mejorar ajustes de usuario</t>
+  </si>
+  <si>
+    <t>Hay que seguir en ello. Faltan cosas</t>
+  </si>
+  <si>
+    <t>Optimizar el código</t>
+  </si>
+  <si>
+    <t>Buscar manera de organizar aú mas las cosas</t>
+  </si>
+  <si>
+    <t>Añadir juegos a "Mis Juegos"</t>
+  </si>
+  <si>
+    <t>Los juegos se añaden correctamente</t>
+  </si>
+  <si>
+    <t>Eliminar juegos de "Mis Juegos"</t>
+  </si>
+  <si>
+    <t>Filtrado por Categorias</t>
+  </si>
+  <si>
+    <t>muestra los juegos por Categorias bien</t>
+  </si>
+  <si>
+    <t>Logging y creacion de cuentas</t>
+  </si>
+  <si>
+    <t>inicio de sesion y creacion de cuentas funciona bien</t>
+  </si>
+  <si>
+    <t>Recordar contraseña</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -104,7 +144,7 @@
     <numFmt numFmtId="168" formatCode="&quot;Finalizado&quot;;&quot;&quot;;&quot;Vencido&quot;"/>
     <numFmt numFmtId="169" formatCode="&quot;Finalizada&quot;;&quot;&quot;;&quot;Vencida&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
@@ -295,7 +335,6 @@
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Año del calendario" xfId="14"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="9" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Fecha" xfId="11"/>
     <cellStyle name="Finalizado o vencido" xfId="13"/>
@@ -305,8 +344,9 @@
     <cellStyle name="Moneda [0]" xfId="8" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Notas" xfId="10" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentaje" xfId="12" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Porcentual" xfId="12" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
   </cellStyles>
@@ -538,7 +578,7 @@
         <xdr:cNvPr id="4" name="Lista de tareas pendientes anual" descr="Marcador de pestaña para el año">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -604,7 +644,7 @@
         <xdr:cNvPr id="3" name="Lista de tareas pendientes anual" descr="Forma de relleno de celda ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -666,7 +706,7 @@
     <tableColumn id="4" name="Estado " dataCellStyle="Normal"/>
     <tableColumn id="6" name="Fecha de inicio " dataDxfId="2" dataCellStyle="Fecha"/>
     <tableColumn id="7" name="Fecha de entrega" dataDxfId="1" dataCellStyle="Fecha"/>
-    <tableColumn id="5" name="Porcentaje completado" dataCellStyle="Porcentaje"/>
+    <tableColumn id="5" name="Porcentaje completado"/>
     <tableColumn id="9" name="¿Finalizada?" dataDxfId="0" dataCellStyle="Finalizado o vencido">
       <calculatedColumnFormula>IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</calculatedColumnFormula>
     </tableColumn>
@@ -725,7 +765,7 @@
     </a:clrScheme>
     <a:fontScheme name="Century Gothic">
       <a:majorFont>
-        <a:latin typeface="Century Gothic" panose="020F0302020204030204"/>
+        <a:latin typeface="Century Gothic"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -760,7 +800,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Century Gothic" panose="020F0302020204030204"/>
+        <a:latin typeface="Century Gothic"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -978,18 +1018,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
@@ -1002,15 +1042,15 @@
     <col min="10" max="10" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="30" customHeight="1">
       <c r="I1" s="1">
         <f ca="1">YEAR(TODAY())</f>
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="84" customHeight="1">
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1020,44 +1060,44 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="30" customHeight="1">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="30" customHeight="1">
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E4" s="7">
         <v>44550</v>
@@ -1070,21 +1110,24 @@
       </c>
       <c r="H4" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="30" customHeight="1">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3">
         <v>44550</v>
@@ -1099,17 +1142,22 @@
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
         <v>1</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="30" customHeight="1">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3">
         <v>44550</v>
@@ -1118,23 +1166,28 @@
         <v>44713</v>
       </c>
       <c r="G6" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
-        <v>-1</v>
-      </c>
-      <c r="J6" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="30" customHeight="1">
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3">
         <v>44550</v>
@@ -1149,17 +1202,20 @@
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
         <v>-1</v>
       </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="30" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E8" s="7">
         <v>44550</v>
@@ -1168,24 +1224,26 @@
         <v>44713</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="30" customHeight="1">
       <c r="B9" s="6" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="7">
         <v>44550</v>
@@ -1200,18 +1258,22 @@
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
         <v>1</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="30" customHeight="1">
       <c r="B10" s="6" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E10" s="7">
         <v>44550</v>
@@ -1220,7 +1282,7 @@
         <v>44713</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H10" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
@@ -1229,15 +1291,15 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="30" customHeight="1">
       <c r="B11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="7">
         <v>44550</v>
@@ -1246,24 +1308,28 @@
         <v>44713</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
-        <v>-1</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="30" customHeight="1">
       <c r="B12" s="6" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E12" s="7">
         <v>44550</v>
@@ -1276,20 +1342,24 @@
       </c>
       <c r="H12" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
-        <v>-1</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="30" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E13" s="7">
         <v>44550</v>
@@ -1298,24 +1368,24 @@
         <v>44713</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H13" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="30" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E14" s="7">
         <v>44550</v>
@@ -1333,15 +1403,15 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="30" customHeight="1">
       <c r="B15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15" s="7">
         <v>44550</v>
@@ -1367,8 +1437,8 @@
   <conditionalFormatting sqref="G5:G15">
     <cfRule type="dataBar" priority="75">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1381,8 +1451,8 @@
   <conditionalFormatting sqref="G8:G11">
     <cfRule type="dataBar" priority="7">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1395,8 +1465,8 @@
   <conditionalFormatting sqref="G12:G15">
     <cfRule type="dataBar" priority="5">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1409,8 +1479,8 @@
   <conditionalFormatting sqref="G4">
     <cfRule type="dataBar" priority="3">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1423,8 +1493,8 @@
   <conditionalFormatting sqref="G4">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>

--- a/Documentación/Requisitos.xlsx
+++ b/Documentación/Requisitos.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dwes\TFG_DAW\Documentación\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
@@ -14,12 +19,12 @@
     <definedName name="Título1">Requisitos_de_Proyecto[[#Headers],[Tarea]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Requisitos del Proyecto'!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>Tarea</t>
   </si>
@@ -130,12 +135,21 @@
   </si>
   <si>
     <t>Recordar contraseña</t>
+  </si>
+  <si>
+    <t>Los juegos se borran correctamente</t>
+  </si>
+  <si>
+    <t>Falta la comprobación del cod de verificación pero cumple su objetivo</t>
+  </si>
+  <si>
+    <t>KO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -144,7 +158,7 @@
     <numFmt numFmtId="168" formatCode="&quot;Finalizado&quot;;&quot;&quot;;&quot;Vencido&quot;"/>
     <numFmt numFmtId="169" formatCode="&quot;Finalizada&quot;;&quot;&quot;;&quot;Vencida&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
@@ -335,6 +349,7 @@
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Año del calendario" xfId="14"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="9" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Fecha" xfId="11"/>
     <cellStyle name="Finalizado o vencido" xfId="13"/>
@@ -344,9 +359,8 @@
     <cellStyle name="Moneda [0]" xfId="8" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Notas" xfId="10" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentual" xfId="12" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Porcentaje" xfId="12" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
   </cellStyles>
@@ -578,7 +592,7 @@
         <xdr:cNvPr id="4" name="Lista de tareas pendientes anual" descr="Marcador de pestaña para el año">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -644,7 +658,7 @@
         <xdr:cNvPr id="3" name="Lista de tareas pendientes anual" descr="Forma de relleno de celda ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1018,18 +1032,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
@@ -1042,13 +1056,13 @@
     <col min="10" max="10" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="30" customHeight="1">
+    <row r="1" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1" s="1">
         <f ca="1">YEAR(TODAY())</f>
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="84" customHeight="1">
+    <row r="2" spans="2:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
@@ -1060,7 +1074,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="2:10" ht="30" customHeight="1">
+    <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="30" customHeight="1">
+    <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1119,7 +1133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="30" customHeight="1">
+    <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -1149,7 +1163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="30" customHeight="1">
+    <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -1179,7 +1193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="30" customHeight="1">
+    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -1207,7 +1221,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="30" customHeight="1">
+    <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
@@ -1235,7 +1249,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="2:10" ht="30" customHeight="1">
+    <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
@@ -1265,7 +1279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="30" customHeight="1">
+    <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
@@ -1273,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7">
         <v>44550</v>
@@ -1282,16 +1296,20 @@
         <v>44713</v>
       </c>
       <c r="G10" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
-        <v>-1</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="2:10" ht="30" customHeight="1">
+    <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
@@ -1321,7 +1339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="30" customHeight="1">
+    <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
@@ -1351,7 +1369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="30" customHeight="1">
+    <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
@@ -1374,10 +1392,14 @@
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="14" spans="2:10" ht="30" customHeight="1">
+    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>1</v>
       </c>
@@ -1403,7 +1425,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="2:10" ht="30" customHeight="1">
+    <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
@@ -1437,8 +1459,8 @@
   <conditionalFormatting sqref="G5:G15">
     <cfRule type="dataBar" priority="75">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1451,8 +1473,8 @@
   <conditionalFormatting sqref="G8:G11">
     <cfRule type="dataBar" priority="7">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1465,8 +1487,8 @@
   <conditionalFormatting sqref="G12:G15">
     <cfRule type="dataBar" priority="5">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1479,8 +1501,8 @@
   <conditionalFormatting sqref="G4">
     <cfRule type="dataBar" priority="3">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1493,8 +1515,8 @@
   <conditionalFormatting sqref="G4">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>

--- a/Documentación/Requisitos.xlsx
+++ b/Documentación/Requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dwes\TFG_DAW\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DAW\TFG\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>Tarea</t>
   </si>
@@ -134,9 +134,6 @@
     <t>inicio de sesion y creacion de cuentas funciona bien</t>
   </si>
   <si>
-    <t>Recordar contraseña</t>
-  </si>
-  <si>
     <t>Los juegos se borran correctamente</t>
   </si>
   <si>
@@ -144,6 +141,27 @@
   </si>
   <si>
     <t>KO</t>
+  </si>
+  <si>
+    <t>Modo Oscuro</t>
+  </si>
+  <si>
+    <t>Menú Desplegable</t>
+  </si>
+  <si>
+    <t>Contiene enlaces a las páginas principales.</t>
+  </si>
+  <si>
+    <t>Optimizar el modo para todas las páginas y resolver pequeños errores + Cookie</t>
+  </si>
+  <si>
+    <t>Recuperar contraseña</t>
+  </si>
+  <si>
+    <t>Edición de "Mi Cuenta"</t>
+  </si>
+  <si>
+    <t>Permite añadir/eliminar foto, cambiar email y nombre</t>
   </si>
 </sst>
 </file>
@@ -713,7 +731,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Requisitos_de_Proyecto" displayName="Requisitos_de_Proyecto" ref="B3:J15" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Requisitos_de_Proyecto" displayName="Requisitos_de_Proyecto" ref="B3:J21" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:J21"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Tarea" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Prioridad " dataCellStyle="Normal"/>
@@ -1037,10 +1056,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1303,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>17</v>
@@ -1371,7 +1390,7 @@
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
@@ -1393,15 +1412,15 @@
         <v>-1</v>
       </c>
       <c r="I13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>6</v>
@@ -1416,24 +1435,28 @@
         <v>44713</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="7">
         <v>44550</v>
@@ -1442,14 +1465,178 @@
         <v>44713</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="7">
+        <v>44550</v>
+      </c>
+      <c r="F16" s="7">
+        <v>44713</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="7">
+        <v>44550</v>
+      </c>
+      <c r="F17" s="7">
+        <v>44713</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="7">
+        <v>44550</v>
+      </c>
+      <c r="F18" s="7">
+        <v>44713</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="7">
+        <v>44550</v>
+      </c>
+      <c r="F19" s="7">
+        <v>44713</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="7">
+        <v>44550</v>
+      </c>
+      <c r="F20" s="7">
+        <v>44713</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="7">
+        <v>44550</v>
+      </c>
+      <c r="F21" s="7">
+        <v>44713</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1457,7 +1644,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G5:G15">
-    <cfRule type="dataBar" priority="75">
+    <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1471,7 +1658,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G11">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1485,7 +1672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G15">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1499,7 +1686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1513,6 +1700,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{79B8839A-BDB6-46B6-B19F-5BA3CAD373A8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G17">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0DDD3E79-3D67-4EDE-9F1A-114AB9AA8CD9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G17">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DD501E73-E123-4DAB-A8F7-9B9E8DBDD8FE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G19">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AAC61AA4-CFE9-4B7F-8579-F5EE51209B95}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G19">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AA4C3AB5-9211-46B1-84A7-255DD8DBBCC9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G21">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9BE2C4F2-CAEF-4B90-8086-AEA71E1B2C65}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G21">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1521,7 +1792,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79B8839A-BDB6-46B6-B19F-5BA3CAD373A8}</x14:id>
+          <x14:id>{A2D9469C-DD6D-4E4E-B0EA-04B32D21869C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1538,19 +1809,19 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Los indicadores de icono de finalizado o vencido en la columna con este encabezado se actualizan automáticamente como tareas completadas. La marca indica tareas vencidas. La marca de verificación indica las tareas completadas." sqref="H3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba las notas en la columna con este encabezado." sqref="I3:J3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba el año para esta lista de tareas pendientes en esta celda." sqref="I1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una entrada de la lista. Seleccione CANCELAR y después pulse ALT+FLECHA ABAJO para abrir la lista desplegable. Pulse ENTRAR para realizar la selección." sqref="D4:D15">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una entrada de la lista. Seleccione CANCELAR y después pulse ALT+FLECHA ABAJO para abrir la lista desplegable. Pulse ENTRAR para realizar la selección." sqref="D4:D21">
       <formula1>"No iniciada, En curso, Aplazado, Completada"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una entrada de la lista. Seleccione CANCELAR y después pulse ALT+FLECHA ABAJO para abrir la lista desplegable. Pulse ENTRAR para realizar la selección." sqref="C4:C15">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una entrada de la lista. Seleccione CANCELAR y después pulse ALT+FLECHA ABAJO para abrir la lista desplegable. Pulse ENTRAR para realizar la selección." sqref="C4:C21">
       <formula1>"Baja, Normal, Alta"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una entrada de la lista. Seleccione CANCELAR y después pulse ALT+FLECHA ABAJO para abrir la lista desplegable. Pulse ENTRAR para realizar la selección." sqref="G4:G15">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una entrada de la lista. Seleccione CANCELAR y después pulse ALT+FLECHA ABAJO para abrir la lista desplegable. Pulse ENTRAR para realizar la selección." sqref="G4:G21">
       <formula1>"0%, 25%, 50%, 75%, 100%"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="La fecha de vencimiento debe ser posterior o igual a la fecha de inicio. Seleccione SÍ para mantener la entrada, NO para volver a intentarlo y CANCELAR para borrar la celda." sqref="F4:F15">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="La fecha de vencimiento debe ser posterior o igual a la fecha de inicio. Seleccione SÍ para mantener la entrada, NO para volver a intentarlo y CANCELAR para borrar la celda." sqref="F4:F21">
       <formula1>F4&gt;=E4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4 J5:J15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J21">
       <formula1>"OK,KO,ERROR"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1632,7 +1903,79 @@
           <xm:sqref>G4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="76" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
+          <x14:cfRule type="dataBar" id="{0DDD3E79-3D67-4EDE-9F1A-114AB9AA8CD9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G16:G17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DD501E73-E123-4DAB-A8F7-9B9E8DBDD8FE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G16:G17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AAC61AA4-CFE9-4B7F-8579-F5EE51209B95}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G18:G19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AA4C3AB5-9211-46B1-84A7-255DD8DBBCC9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G18:G19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9BE2C4F2-CAEF-4B90-8086-AEA71E1B2C65}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G20:G21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A2D9469C-DD6D-4E4E-B0EA-04B32D21869C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G20:G21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="88" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1651,7 +1994,7 @@
           <xm:sqref>H5:H15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{8A67EEF5-3914-48C2-8AE8-4211DB52B12D}">
+          <x14:cfRule type="iconSet" priority="20" id="{8A67EEF5-3914-48C2-8AE8-4211DB52B12D}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1670,7 +2013,7 @@
           <xm:sqref>H8:H11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{8EB81D70-AFB4-40DE-B43B-2EB74B6B5FA1}">
+          <x14:cfRule type="iconSet" priority="18" id="{8EB81D70-AFB4-40DE-B43B-2EB74B6B5FA1}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1689,7 +2032,7 @@
           <xm:sqref>H12:H15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{AF6B9E82-55FB-4D4A-9D47-829F5F530089}">
+          <x14:cfRule type="iconSet" priority="16" id="{AF6B9E82-55FB-4D4A-9D47-829F5F530089}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1708,7 +2051,7 @@
           <xm:sqref>H4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{1382CCA0-367D-4EEE-9957-8E277C7D421F}">
+          <x14:cfRule type="iconSet" priority="14" id="{1382CCA0-367D-4EEE-9957-8E277C7D421F}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1726,6 +2069,120 @@
           </x14:cfRule>
           <xm:sqref>H4</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{D7295065-0D80-4E24-8057-B8BCECA38C49}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H16:H17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{C74E6849-C374-4696-BC9D-3220DD433041}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H16:H17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{5A761BBA-1CBE-4533-9E36-EF852DEE2B20}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H18:H19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{818329A9-A8BB-4D96-8825-D2AF147F1444}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H18:H19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{B9964998-96C3-4855-8740-68ABD2D72006}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H20:H21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{767EC975-C891-4035-B9FF-972480B392F1}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H20:H21</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Documentación/Requisitos.xlsx
+++ b/Documentación/Requisitos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>Tarea</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>Permite añadir/eliminar foto, cambiar email y nombre</t>
+  </si>
+  <si>
+    <t>Cabecera Fija</t>
+  </si>
+  <si>
+    <t>Cookie Modo Oscuro</t>
+  </si>
+  <si>
+    <t>Guarda de forma persistente el modo que selecciona cada usuario</t>
+  </si>
+  <si>
+    <t>Cabecera fija cuando el usuario hace scroll</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1070,8 @@
   </sheetPr>
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1435,7 +1447,7 @@
         <v>44713</v>
       </c>
       <c r="G14" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H14" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
@@ -1510,13 +1522,13 @@
     </row>
     <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="7">
         <v>44550</v>
@@ -1525,24 +1537,28 @@
         <v>44713</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
-        <v>-1</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E18" s="7">
         <v>44550</v>
@@ -1555,10 +1571,14 @@
       </c>
       <c r="H18" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
-        <v>-1</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">

--- a/Documentación/Requisitos.xlsx
+++ b/Documentación/Requisitos.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DAW\TFG\Documentación\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
@@ -19,7 +14,7 @@
     <definedName name="Título1">Requisitos_de_Proyecto[[#Headers],[Tarea]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Requisitos del Proyecto'!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -137,9 +132,6 @@
     <t>Los juegos se borran correctamente</t>
   </si>
   <si>
-    <t>Falta la comprobación del cod de verificación pero cumple su objetivo</t>
-  </si>
-  <si>
     <t>KO</t>
   </si>
   <si>
@@ -174,12 +166,15 @@
   </si>
   <si>
     <t>Cabecera fija cuando el usuario hace scroll</t>
+  </si>
+  <si>
+    <t>todo OK, verificación de email, nickname y código</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -188,7 +183,7 @@
     <numFmt numFmtId="168" formatCode="&quot;Finalizado&quot;;&quot;&quot;;&quot;Vencido&quot;"/>
     <numFmt numFmtId="169" formatCode="&quot;Finalizada&quot;;&quot;&quot;;&quot;Vencida&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
@@ -379,7 +374,6 @@
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Año del calendario" xfId="14"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="9" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Fecha" xfId="11"/>
     <cellStyle name="Finalizado o vencido" xfId="13"/>
@@ -389,8 +383,9 @@
     <cellStyle name="Moneda [0]" xfId="8" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Notas" xfId="10" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentaje" xfId="12" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Porcentual" xfId="12" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
   </cellStyles>
@@ -622,7 +617,7 @@
         <xdr:cNvPr id="4" name="Lista de tareas pendientes anual" descr="Marcador de pestaña para el año">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -688,7 +683,7 @@
         <xdr:cNvPr id="3" name="Lista de tareas pendientes anual" descr="Forma de relleno de celda ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1063,18 +1058,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
@@ -1087,13 +1082,13 @@
     <col min="10" max="10" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="30" customHeight="1">
       <c r="I1" s="1">
         <f ca="1">YEAR(TODAY())</f>
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="84" customHeight="1">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
@@ -1105,7 +1100,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="30" customHeight="1">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="30" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1164,7 +1159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="30" customHeight="1">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -1194,7 +1189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="30" customHeight="1">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -1224,7 +1219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="30" customHeight="1">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -1252,7 +1247,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="30" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
@@ -1280,7 +1275,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="30" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
@@ -1310,7 +1305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="30" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
@@ -1340,7 +1335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="30" customHeight="1">
       <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
@@ -1370,7 +1365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="30" customHeight="1">
       <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
@@ -1400,15 +1395,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="30" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E13" s="7">
         <v>44550</v>
@@ -1417,22 +1412,22 @@
         <v>44713</v>
       </c>
       <c r="G13" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="30" customHeight="1">
+      <c r="B14" s="6" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>6</v>
@@ -1454,15 +1449,15 @@
         <v>-1</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="30" customHeight="1">
       <c r="B15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>4</v>
@@ -1484,15 +1479,15 @@
         <v>1</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="30" customHeight="1">
       <c r="B16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>4</v>
@@ -1514,15 +1509,15 @@
         <v>1</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="30" customHeight="1">
       <c r="B17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>6</v>
@@ -1544,15 +1539,15 @@
         <v>1</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="30" customHeight="1">
       <c r="B18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>6</v>
@@ -1574,13 +1569,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="30" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
@@ -1606,7 +1601,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="30" customHeight="1">
       <c r="B20" s="6" t="s">
         <v>1</v>
       </c>
@@ -1632,7 +1627,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="30" customHeight="1">
       <c r="B21" s="6" t="s">
         <v>2</v>
       </c>
@@ -1666,8 +1661,8 @@
   <conditionalFormatting sqref="G5:G15">
     <cfRule type="dataBar" priority="87">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1680,8 +1675,8 @@
   <conditionalFormatting sqref="G8:G11">
     <cfRule type="dataBar" priority="19">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1694,8 +1689,8 @@
   <conditionalFormatting sqref="G12:G15">
     <cfRule type="dataBar" priority="17">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1708,8 +1703,8 @@
   <conditionalFormatting sqref="G4">
     <cfRule type="dataBar" priority="15">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1722,8 +1717,8 @@
   <conditionalFormatting sqref="G4">
     <cfRule type="dataBar" priority="13">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1736,8 +1731,8 @@
   <conditionalFormatting sqref="G16:G17">
     <cfRule type="dataBar" priority="11">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1750,8 +1745,8 @@
   <conditionalFormatting sqref="G16:G17">
     <cfRule type="dataBar" priority="9">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1764,8 +1759,8 @@
   <conditionalFormatting sqref="G18:G19">
     <cfRule type="dataBar" priority="7">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1778,8 +1773,8 @@
   <conditionalFormatting sqref="G18:G19">
     <cfRule type="dataBar" priority="5">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1792,8 +1787,8 @@
   <conditionalFormatting sqref="G20:G21">
     <cfRule type="dataBar" priority="3">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>
@@ -1806,8 +1801,8 @@
   <conditionalFormatting sqref="G20:G21">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="3" tint="0.39997558519241921"/>
       </dataBar>
       <extLst>

--- a/Documentación/Requisitos.xlsx
+++ b/Documentación/Requisitos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>Tarea</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Los juegos se borran correctamente</t>
   </si>
   <si>
-    <t>KO</t>
-  </si>
-  <si>
     <t>Modo Oscuro</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>Contiene enlaces a las páginas principales.</t>
   </si>
   <si>
-    <t>Optimizar el modo para todas las páginas y resolver pequeños errores + Cookie</t>
-  </si>
-  <si>
     <t>Recuperar contraseña</t>
   </si>
   <si>
@@ -169,6 +163,9 @@
   </si>
   <si>
     <t>todo OK, verificación de email, nickname y código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolver pequeños errores </t>
   </si>
 </sst>
 </file>
@@ -617,7 +614,7 @@
         <xdr:cNvPr id="4" name="Lista de tareas pendientes anual" descr="Marcador de pestaña para el año">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -683,7 +680,7 @@
         <xdr:cNvPr id="3" name="Lista de tareas pendientes anual" descr="Forma de relleno de celda ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1065,8 +1062,8 @@
   </sheetPr>
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
@@ -1397,7 +1394,7 @@
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
@@ -1419,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>17</v>
@@ -1427,13 +1424,13 @@
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E14" s="7">
         <v>44550</v>
@@ -1442,22 +1439,22 @@
         <v>44713</v>
       </c>
       <c r="G14" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H14" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1">
       <c r="B15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>4</v>
@@ -1479,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>17</v>
@@ -1487,7 +1484,7 @@
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1">
       <c r="B16" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>4</v>
@@ -1509,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>17</v>
@@ -1517,7 +1514,7 @@
     </row>
     <row r="17" spans="2:10" ht="30" customHeight="1">
       <c r="B17" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>6</v>
@@ -1539,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>17</v>
@@ -1547,7 +1544,7 @@
     </row>
     <row r="18" spans="2:10" ht="30" customHeight="1">
       <c r="B18" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>6</v>
@@ -1569,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>17</v>

--- a/Documentación/Requisitos.xlsx
+++ b/Documentación/Requisitos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>Tarea</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t xml:space="preserve">Resolver pequeños errores </t>
+  </si>
+  <si>
+    <t>Mostrar Contraseña</t>
+  </si>
+  <si>
+    <t>Muestra la contraseña de todos los formularios.</t>
   </si>
 </sst>
 </file>
@@ -614,7 +620,7 @@
         <xdr:cNvPr id="4" name="Lista de tareas pendientes anual" descr="Marcador de pestaña para el año">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -680,7 +686,7 @@
         <xdr:cNvPr id="3" name="Lista de tareas pendientes anual" descr="Forma de relleno de celda ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1062,8 +1068,8 @@
   </sheetPr>
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
@@ -1233,7 +1239,7 @@
         <v>44713</v>
       </c>
       <c r="G7" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H7" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
@@ -1261,7 +1267,7 @@
         <v>44713</v>
       </c>
       <c r="G8" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
@@ -1574,13 +1580,13 @@
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1">
       <c r="B19" s="6" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" s="7">
         <v>44550</v>
@@ -1589,14 +1595,18 @@
         <v>44713</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
-        <v>-1</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1">
       <c r="B20" s="6" t="s">

--- a/Documentación/Requisitos.xlsx
+++ b/Documentación/Requisitos.xlsx
@@ -19,17 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>Tarea</t>
   </si>
   <si>
-    <t>Tarea 3</t>
-  </si>
-  <si>
-    <t>Tarea 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prioridad </t>
   </si>
   <si>
@@ -45,18 +39,12 @@
     <t xml:space="preserve">Estado </t>
   </si>
   <si>
-    <t>En curso</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fecha de inicio </t>
   </si>
   <si>
     <t>Porcentaje completado</t>
   </si>
   <si>
-    <t>No iniciada</t>
-  </si>
-  <si>
     <t>Completada</t>
   </si>
   <si>
@@ -99,15 +87,9 @@
     <t>Mejorar ajustes de usuario</t>
   </si>
   <si>
-    <t>Hay que seguir en ello. Faltan cosas</t>
-  </si>
-  <si>
     <t>Optimizar el código</t>
   </si>
   <si>
-    <t>Buscar manera de organizar aú mas las cosas</t>
-  </si>
-  <si>
     <t>Añadir juegos a "Mis Juegos"</t>
   </si>
   <si>
@@ -172,6 +154,12 @@
   </si>
   <si>
     <t>Muestra la contraseña de todos los formularios.</t>
+  </si>
+  <si>
+    <t>Optimización satisfactoria, aunque es posible optimizar más en un futuro</t>
+  </si>
+  <si>
+    <t>Resueltos errores de ajustes de usuario</t>
   </si>
 </sst>
 </file>
@@ -620,7 +608,7 @@
         <xdr:cNvPr id="4" name="Lista de tareas pendientes anual" descr="Marcador de pestaña para el año">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -686,7 +674,7 @@
         <xdr:cNvPr id="3" name="Lista de tareas pendientes anual" descr="Forma de relleno de celda ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1068,8 +1056,8 @@
   </sheetPr>
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
@@ -1093,7 +1081,7 @@
     </row>
     <row r="2" spans="2:10" ht="84" customHeight="1">
       <c r="B2" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1108,45 +1096,45 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="30" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7">
         <v>44550</v>
       </c>
       <c r="F4" s="7">
-        <v>44713</v>
+        <v>44724</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -1156,27 +1144,27 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="30" customHeight="1">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3">
         <v>44550</v>
       </c>
-      <c r="F5" s="3">
-        <v>44713</v>
+      <c r="F5" s="7">
+        <v>44724</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -1186,27 +1174,27 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="30" customHeight="1">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3">
         <v>44550</v>
       </c>
-      <c r="F6" s="3">
-        <v>44713</v>
+      <c r="F6" s="7">
+        <v>44724</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -1216,18 +1204,18 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1235,27 +1223,29 @@
       <c r="E7" s="3">
         <v>44550</v>
       </c>
-      <c r="F7" s="3">
-        <v>44713</v>
+      <c r="F7" s="7">
+        <v>44724</v>
       </c>
       <c r="G7" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
@@ -1264,35 +1254,37 @@
         <v>44550</v>
       </c>
       <c r="F8" s="7">
-        <v>44713</v>
+        <v>44724</v>
       </c>
       <c r="G8" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1">
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E9" s="7">
         <v>44550</v>
       </c>
       <c r="F9" s="7">
-        <v>44713</v>
+        <v>44724</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -1302,27 +1294,27 @@
         <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1">
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E10" s="7">
         <v>44550</v>
       </c>
       <c r="F10" s="7">
-        <v>44713</v>
+        <v>44724</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1332,27 +1324,27 @@
         <v>1</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1">
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11" s="7">
         <v>44550</v>
       </c>
       <c r="F11" s="7">
-        <v>44713</v>
+        <v>44724</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -1362,27 +1354,27 @@
         <v>1</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1">
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E12" s="7">
         <v>44550</v>
       </c>
       <c r="F12" s="7">
-        <v>44713</v>
+        <v>44724</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -1392,27 +1384,27 @@
         <v>1</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E13" s="7">
         <v>44550</v>
       </c>
       <c r="F13" s="7">
-        <v>44713</v>
+        <v>44724</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -1422,27 +1414,27 @@
         <v>1</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E14" s="7">
         <v>44550</v>
       </c>
       <c r="F14" s="7">
-        <v>44713</v>
+        <v>44724</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -1452,27 +1444,27 @@
         <v>1</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1">
       <c r="B15" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E15" s="7">
         <v>44550</v>
       </c>
       <c r="F15" s="7">
-        <v>44713</v>
+        <v>44724</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -1482,27 +1474,27 @@
         <v>1</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1">
       <c r="B16" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E16" s="7">
         <v>44550</v>
       </c>
       <c r="F16" s="7">
-        <v>44713</v>
+        <v>44724</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -1512,27 +1504,27 @@
         <v>1</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="30" customHeight="1">
       <c r="B17" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E17" s="7">
         <v>44550</v>
       </c>
       <c r="F17" s="7">
-        <v>44713</v>
+        <v>44724</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -1542,27 +1534,27 @@
         <v>1</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="30" customHeight="1">
       <c r="B18" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E18" s="7">
         <v>44550</v>
       </c>
       <c r="F18" s="7">
-        <v>44713</v>
+        <v>44724</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -1572,27 +1564,27 @@
         <v>1</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1">
       <c r="B19" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E19" s="7">
         <v>44550</v>
       </c>
       <c r="F19" s="7">
-        <v>44713</v>
+        <v>44724</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -1602,61 +1594,31 @@
         <v>1</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1">
-      <c r="B20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="7">
-        <v>44550</v>
-      </c>
-      <c r="F20" s="7">
-        <v>44713</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4">
-        <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
-        <v>-1</v>
-      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10" ht="30" customHeight="1">
-      <c r="B21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="7">
-        <v>44550</v>
-      </c>
-      <c r="F21" s="7">
-        <v>44713</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <f ca="1">IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]="Completada",Requisitos_de_Proyecto[[#This Row],[Porcentaje completado]]=1),1,IF(ISBLANK(Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),-1,IF(AND(Requisitos_de_Proyecto[[#This Row],[Estado ]]&lt;&gt;"Completado",TODAY()&gt;Requisitos_de_Proyecto[[#This Row],[Fecha de entrega]]),0,-1)))</f>
-        <v>-1</v>
-      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
